--- a/Book2 Uji coba secrip config (1).xlsx
+++ b/Book2 Uji coba secrip config (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wifian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ngoprek2\2024\mikolt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50CC326D-C5C2-4691-985D-3E000D824393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFC33D-F82A-4EE7-85C6-B57E77ADD3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BD51175B-3152-4DA7-BEF2-AAF7E076EA07}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD51175B-3152-4DA7-BEF2-AAF7E076EA07}"/>
   </bookViews>
   <sheets>
     <sheet name="KCM" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>wr</t>
   </si>
@@ -138,9 +138,6 @@
     <t>ONT ALL ZTE SERIES</t>
   </si>
   <si>
-    <t>1/2/1</t>
-  </si>
-  <si>
     <t>interface gpon</t>
   </si>
   <si>
@@ -166,6 +163,12 @@
   </si>
   <si>
     <t>ZTEGD158ABAA</t>
+  </si>
+  <si>
+    <t>pon-onu-mng gpon-onu_1/1/1:1</t>
+  </si>
+  <si>
+    <t>1/1/1</t>
   </si>
 </sst>
 </file>
@@ -760,32 +763,32 @@
   <dimension ref="B1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="1" max="1" width="1.5546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="2.85546875" customWidth="1"/>
+    <col min="3" max="3" width="2.88671875" customWidth="1"/>
     <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="7" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5546875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="107" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" ht="3.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
@@ -800,7 +803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>31</v>
       </c>
@@ -808,7 +811,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="11">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="E3" t="str">
         <f>UPPER(D5)</f>
@@ -820,10 +823,10 @@
       <c r="I3" s="20"/>
       <c r="J3" s="1" t="str">
         <f>"interface gpon-olt_"&amp;D2</f>
-        <v>interface gpon-olt_1/2/1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+        <v>interface gpon-olt_1/1/1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>29</v>
       </c>
@@ -831,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="str">
         <f>SUBSTITUTE(E3," ","_")</f>
@@ -843,10 +846,10 @@
       <c r="I4" s="20"/>
       <c r="J4" s="1" t="str">
         <f>"no onu "&amp;D3</f>
-        <v>no onu 72</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>no onu 1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="6" t="s">
         <v>27</v>
       </c>
@@ -854,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" t="str">
         <f>F7&amp;E11&amp;E3&amp;E11&amp;E9</f>
@@ -866,10 +869,10 @@
       <c r="I5" s="20"/>
       <c r="J5" s="1" t="str">
         <f>"onu "&amp;D3&amp;F4&amp;D4</f>
-        <v>onu 72 type ALL-ONT sn ZTEGD158ABAA</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+        <v>onu 1 type ALL-ONT sn ZTEGD158ABAA</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>25</v>
       </c>
@@ -877,7 +880,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="str">
         <f>SUBSTITUTE(E4,"/","_")</f>
@@ -891,7 +894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
@@ -899,7 +902,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>22</v>
@@ -911,7 +914,7 @@
       <c r="I7" s="20"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>21</v>
       </c>
@@ -919,7 +922,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="str">
         <f>SUBSTITUTE(E9,"/","_")</f>
@@ -931,10 +934,10 @@
       <c r="I8" s="20"/>
       <c r="J8" s="1" t="str">
         <f>"interface gpon-onu_"&amp;D2&amp;F2&amp;D3</f>
-        <v>interface gpon-onu_1/2/1:72</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+        <v>interface gpon-onu_1/1/1:1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
@@ -957,7 +960,7 @@
         <v>name 816812588 | SANTI SUSANTI | ZAMRUD P15/7</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>16</v>
       </c>
@@ -969,7 +972,7 @@
       </c>
       <c r="E10" t="str">
         <f>D2&amp;F2&amp;D3</f>
-        <v>1/2/1:72</v>
+        <v>1/1/1:1</v>
       </c>
       <c r="F10" t="s">
         <v>15</v>
@@ -980,9 +983,9 @@
         <v>description $$089640007596$$</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>11</v>
@@ -1001,7 +1004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1010,14 +1013,14 @@
       </c>
       <c r="D12" s="2" t="str">
         <f>E6&amp;E11&amp;E9&amp;E11&amp;D4&amp;E11&amp;E10&amp;E7</f>
-        <v>SANTI_SUSANTI | ZAMRUD P15/7 | ZTEGD158ABAA | 1/2/1:72@KCM</v>
+        <v>SANTI_SUSANTI | ZAMRUD P15/7 | ZTEGD158ABAA | 1/1/1:1@KCM</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="E13" t="str">
         <f>SUBSTITUTE(E12," ","_")</f>
         <v/>
@@ -1027,117 +1030,120 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I14" s="20"/>
       <c r="J14" s="1" t="str">
         <f>"service-port 1 vport 1 user-vlan "&amp;D10&amp;F5&amp;D10</f>
         <v>service-port 1 vport 1 user-vlan 300 vlan 300</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="I15" s="20"/>
       <c r="J15" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>43</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I17" s="20"/>
       <c r="J17" s="14"/>
     </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I18" s="20"/>
       <c r="J18" s="1" t="str">
         <f>"pon-onu-mng gpon-onu_"&amp;D2&amp;F2&amp;D3</f>
-        <v>pon-onu-mng gpon-onu_1/2/1:72</v>
-      </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
+        <v>pon-onu-mng gpon-onu_1/1/1:1</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I19" s="20"/>
       <c r="J19" s="1" t="str">
         <f>"service PPP gemport 1"&amp;F5&amp;D10</f>
         <v>service PPP gemport 1 vlan 300</v>
       </c>
     </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I20" s="20"/>
       <c r="J20" s="1" t="str">
         <f>"service TV gemport 1"&amp;F5&amp;D11</f>
         <v>service TV gemport 1 vlan 111</v>
       </c>
     </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I21" s="20"/>
       <c r="J21" s="1" t="str">
         <f>"wan-ip 1 mode pppoe username "&amp;D8&amp;F8&amp;F11&amp;F9&amp;D9&amp;F10</f>
         <v>wan-ip 1 mode pppoe username 816812588@bks.wifian.net.id password berhasil vlan-profile PPPOE300 host 1</v>
       </c>
     </row>
-    <row r="22" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I22" s="20"/>
       <c r="J22" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I23" s="20"/>
       <c r="J23" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I24" s="20"/>
       <c r="J24" s="1" t="str">
         <f>"vlan port wifi_0/1 mode tag vlan "&amp;D11</f>
         <v>vlan port wifi_0/1 mode tag vlan 111</v>
       </c>
     </row>
-    <row r="25" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I25" s="20"/>
       <c r="J25" s="1" t="str">
         <f>"mvlan "&amp;D11</f>
         <v>mvlan 111</v>
       </c>
     </row>
-    <row r="26" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I26" s="20"/>
       <c r="J26" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I27" s="20"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I28" s="20"/>
       <c r="J28" s="1" t="str">
         <f>"igmp mvlan "&amp;D11&amp;" receive-port gpon-onu_"&amp;D2&amp;F2&amp;D3&amp;" vport 1"</f>
-        <v>igmp mvlan 111 receive-port gpon-onu_1/2/1:72 vport 1</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" x14ac:dyDescent="0.25">
+        <v>igmp mvlan 111 receive-port gpon-onu_1/1/1:1 vport 1</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I29" s="20"/>
       <c r="J29" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I30" s="21"/>
       <c r="J30" s="14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I31" s="22"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I32" s="19" t="s">
         <v>8</v>
       </c>
@@ -1145,193 +1151,193 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I33" s="20"/>
       <c r="J33" s="15" t="str">
         <f>"interface gpon-olt_"&amp;D2</f>
-        <v>interface gpon-olt_1/2/1</v>
-      </c>
-    </row>
-    <row r="34" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>interface gpon-olt_1/1/1</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I34" s="20"/>
       <c r="J34" s="15" t="str">
         <f>"no onu "&amp;D3</f>
-        <v>no onu 72</v>
-      </c>
-    </row>
-    <row r="35" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>no onu 1</v>
+      </c>
+    </row>
+    <row r="35" spans="9:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I35" s="20"/>
       <c r="J35" s="15" t="str">
         <f>"onu "&amp;D3&amp;F4&amp;D4</f>
-        <v>onu 72 type ALL-ONT sn ZTEGD158ABAA</v>
-      </c>
-    </row>
-    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
+        <v>onu 1 type ALL-ONT sn ZTEGD158ABAA</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I36" s="20"/>
       <c r="J36" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I37" s="20"/>
       <c r="J37" s="15"/>
     </row>
-    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I38" s="20"/>
       <c r="J38" s="15" t="str">
         <f>"interface gpon-onu_"&amp;D2&amp;F2&amp;D3</f>
-        <v>interface gpon-onu_1/2/1:72</v>
-      </c>
-    </row>
-    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
+        <v>interface gpon-onu_1/1/1:1</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I39" s="20"/>
       <c r="J39" s="15" t="str">
         <f>"name "&amp;E5</f>
         <v>name 816812588 | SANTI SUSANTI | ZAMRUD P15/7</v>
       </c>
     </row>
-    <row r="40" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I40" s="20"/>
       <c r="J40" s="15" t="str">
         <f>"description "&amp;F3&amp;D7&amp;F3</f>
         <v>description $$089640007596$$</v>
       </c>
     </row>
-    <row r="41" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I41" s="20"/>
       <c r="J41" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I42" s="20"/>
       <c r="J42" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I43" s="20"/>
       <c r="J43" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="9:10" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I44" s="20"/>
       <c r="J44" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I45" s="20"/>
       <c r="J45" s="15" t="str">
         <f>"service-port 1 vport 1 user-vlan "&amp;D10&amp;F5&amp;D10</f>
         <v>service-port 1 vport 1 user-vlan 300 vlan 300</v>
       </c>
     </row>
-    <row r="46" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I46" s="20"/>
       <c r="J46" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I47" s="20"/>
       <c r="J47" s="15" t="str">
         <f>"service-port 2 vport 2 user-vlan "&amp;D11&amp;F5&amp;D11</f>
         <v>service-port 2 vport 2 user-vlan 111 vlan 111</v>
       </c>
     </row>
-    <row r="48" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I48" s="20"/>
       <c r="J48" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I49" s="20"/>
       <c r="J49" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I50" s="20"/>
       <c r="J50" s="15"/>
     </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I51" s="20"/>
       <c r="J51" s="15" t="str">
         <f>"pon-onu-mng gpon-onu_"&amp;D2&amp;F2&amp;D3</f>
-        <v>pon-onu-mng gpon-onu_1/2/1:72</v>
-      </c>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.25">
+        <v>pon-onu-mng gpon-onu_1/1/1:1</v>
+      </c>
+    </row>
+    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I52" s="20"/>
       <c r="J52" s="15" t="str">
         <f>"service PPP gemport 1"&amp;F5&amp;D10</f>
         <v>service PPP gemport 1 vlan 300</v>
       </c>
     </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I53" s="20"/>
       <c r="J53" s="15" t="str">
         <f>"service TV gemport 1"&amp;F5&amp;D11</f>
         <v>service TV gemport 1 vlan 111</v>
       </c>
     </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I54" s="20"/>
       <c r="J54" s="15" t="str">
         <f>"vlan port veip_1 mode hybrid def-vlan "&amp;D10</f>
         <v>vlan port veip_1 mode hybrid def-vlan 300</v>
       </c>
     </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I55" s="20"/>
       <c r="J55" s="15" t="str">
         <f>"vlan port wifi_0/1 mode tag vlan "&amp;D11</f>
         <v>vlan port wifi_0/1 mode tag vlan 111</v>
       </c>
     </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I56" s="20"/>
       <c r="J56" s="15" t="str">
         <f>"mvlan "&amp;D11</f>
         <v>mvlan 111</v>
       </c>
     </row>
-    <row r="57" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I57" s="20"/>
       <c r="J57" s="15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I58" s="20"/>
       <c r="J58" s="15"/>
     </row>
-    <row r="59" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I59" s="20"/>
       <c r="J59" s="15" t="str">
         <f>"igmp mvlan "&amp;D11&amp;" receive-port gpon-onu_"&amp;D2&amp;F2&amp;D3&amp;" vport 1"</f>
-        <v>igmp mvlan 111 receive-port gpon-onu_1/2/1:72 vport 1</v>
-      </c>
-    </row>
-    <row r="60" spans="9:10" x14ac:dyDescent="0.25">
+        <v>igmp mvlan 111 receive-port gpon-onu_1/1/1:1 vport 1</v>
+      </c>
+    </row>
+    <row r="60" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I60" s="20"/>
       <c r="J60" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="9:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="9:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="I61" s="21"/>
       <c r="J61" s="16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I62" s="18"/>
     </row>
-    <row r="63" spans="9:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I63" s="18"/>
     </row>
   </sheetData>

--- a/Book2 Uji coba secrip config (1).xlsx
+++ b/Book2 Uji coba secrip config (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ngoprek2\2024\mikolt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FFC33D-F82A-4EE7-85C6-B57E77ADD3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2C67A0-C771-4EDB-9C16-64A097ECE226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BD51175B-3152-4DA7-BEF2-AAF7E076EA07}"/>
+    <workbookView xWindow="34680" yWindow="3720" windowWidth="17280" windowHeight="8880" xr2:uid="{BD51175B-3152-4DA7-BEF2-AAF7E076EA07}"/>
   </bookViews>
   <sheets>
     <sheet name="KCM" sheetId="1" r:id="rId1"/>
@@ -762,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3CFCCA8-08C6-4B86-B1B5-4A5D9A1A8F31}">
   <dimension ref="B1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
